--- a/data/sysml2/result/ResponsePlanElement.xlsx
+++ b/data/sysml2/result/ResponsePlanElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,7 @@
           <t>ResponsePlanElement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -520,11 +516,7 @@
           <t>ResponsePlanElement</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -580,11 +572,7 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -610,11 +598,7 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -640,11 +624,7 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -662,19 +642,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Firefighting</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>implementationCondition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -688,19 +664,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Firefighting</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>implementationCondition</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -709,19 +681,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -735,19 +703,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -756,19 +720,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -782,19 +742,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -808,14 +764,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RoadControl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -834,14 +786,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RoadControl</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Firefighting</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -855,14 +803,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -881,14 +825,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PersonnalRescue</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -902,14 +842,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -928,14 +864,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadCleaning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -944,163 +876,93 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>aidStates</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>idleState</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Aid:Action</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>implementState</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>firefightingStates</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadControl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>idleState</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>FireFighting:Action</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>implementState</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rescueStates</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>idleState</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Rescue:Action</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>implementState</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>towStates</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>RoadRepair</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>idleState</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Tow:Action</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>implementState</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1114,19 +976,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleTowing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1135,117 +993,151 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>aidStates</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Aid:Action</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>implementState</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>firefightingStates</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>FireFighting:Action</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>implementState</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>rescueStates</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Rescue:Action</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>implementState</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>towStates</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>66</t>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>idleState</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Tow:Action</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>implementState</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1255,44 +1147,44 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1302,23 +1194,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1328,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1354,7 +1246,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1375,7 +1267,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1401,7 +1293,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1422,15 +1314,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
@@ -1452,15 +1340,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
@@ -1472,27 +1356,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1502,52 +1382,44 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ResourceType</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1557,58 +1429,42 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ResourceUsageCondition</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1620,33 +1476,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ResourceQuantityOrQuality</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Real</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1658,22 +1502,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1688,22 +1536,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BehaviorType</t>
+          <t>ResourceType</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Enum</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1713,22 +1565,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -1743,22 +1599,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ImplementationCondition</t>
+          <t>ResourceUsageCondition</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1768,7 +1628,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1785,7 +1645,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -1802,7 +1662,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>ResourceQuantityOrQuality</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1818,6 +1678,195 @@
         </is>
       </c>
       <c r="G52" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BehaviorType</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BehaviorType</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ImplementationCondition</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ImplementationCondition</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>66</t>
         </is>
